--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -1,35 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Recipients" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Recipients"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="5">
+  <si>
+    <t>Contact</t>
+  </si>
   <si>
     <t>Message</t>
   </si>
   <si>
-    <t>Contact</t>
+    <t>Thank you for your interest in our school. 
+We appreciate the time and effort you put into the application process but we need you to do an *English* re-exam, for another chance and another opportunity. 
+Stay tuned for further details regarding the re-exam dates.
+Global British School (GBS)</t>
   </si>
   <si>
-    <t>Hi, *Important Text*: Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book.</t>
+    <t>Thank you for your interest in our school. 
+We appreciate the time and effort you put into the application process but we need you to do a *Maths* re-exam, for another chance and another opportunity. 
+Stay tuned for further details regarding the re-exam dates.
+Global British School (GBS)</t>
+  </si>
+  <si>
+    <t>Thank you for your interest in our school. 
+We appreciate the time and effort you put into the application process but we need you to do a *Maths &amp; English* re-exam, for another chance and another opportunity. 
+Stay tuned for further details regarding the re-exam dates.
+Global British School (GBS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,16 +53,91 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffffff"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFff0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFff0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFff0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFff0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFff0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFff0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00ff00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00ff00"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00ff00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00ff00"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -58,69 +149,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A3" totalsRowShown="0" dataDxfId="4">
-  <tableColumns count="1">
-    <tableColumn id="1" name="Contact" dataDxfId="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C1:C3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <tableColumns count="1">
-    <tableColumn id="1" name="Message" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -128,16 +197,16 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -166,74 +235,74 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -257,54 +326,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -314,7 +382,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -323,7 +391,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -332,7 +400,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -340,10 +408,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -372,7 +440,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -385,13 +453,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -410,46 +477,463 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="92.28515625" customWidth="1"/>
+    <col min="1" max="1" style="7" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="92.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1"/>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>33999999999</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>33999999999</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="120.75">
+      <c r="A2" s="4">
+        <v>201110000118</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="120.75">
+      <c r="A3" s="4">
+        <v>201117733401</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="120.75">
+      <c r="A4" s="4">
+        <v>201024633174</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="120.75">
+      <c r="A5" s="4">
+        <v>201285777823</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="120.75">
+      <c r="A6" s="4">
+        <v>201145111904</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="120.75">
+      <c r="A7" s="4">
+        <v>201224665800</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="120.75">
+      <c r="A8" s="4">
+        <v>201002468494</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="120.75">
+      <c r="A9" s="4">
+        <v>201005002021</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="120.75">
+      <c r="A10" s="4">
+        <v>201118000945</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="120.75">
+      <c r="A11" s="4">
+        <v>201005851044</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="120.75">
+      <c r="A12" s="4">
+        <v>201100588774</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="120.75">
+      <c r="A13" s="4">
+        <v>201098999963</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="120.75">
+      <c r="A14" s="4">
+        <v>201001431290</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="120.75">
+      <c r="A15" s="4">
+        <v>201146596950</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="120.75">
+      <c r="A16" s="4">
+        <v>201098999963</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="120.75">
+      <c r="A17" s="4">
+        <v>201128478504</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="120.75">
+      <c r="A18" s="4">
+        <v>201015110598</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="120.75">
+      <c r="A19" s="4">
+        <v>201224950960</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="120.75">
+      <c r="A20" s="4">
+        <v>201008780053</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="120.75">
+      <c r="A21" s="4">
+        <v>201117979799</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="120.75">
+      <c r="A22" s="4">
+        <v>201159196103</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="120.75">
+      <c r="A23" s="4">
+        <v>201149422131</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="120.75">
+      <c r="A24" s="4">
+        <v>201025206585</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="120.75">
+      <c r="A25" s="4">
+        <v>201005007354</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="120.75">
+      <c r="A26" s="4">
+        <v>201093393984</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="120.75">
+      <c r="A27" s="4">
+        <v>201023589496</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="120.75">
+      <c r="A28" s="4">
+        <v>201009900091</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="120.75">
+      <c r="A29" s="4">
+        <v>201001617083</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="120.75">
+      <c r="A30" s="4">
+        <v>201005263940</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="120.75">
+      <c r="A31" s="4">
+        <v>201010971115</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="120.75">
+      <c r="A32" s="4">
+        <v>201144142995</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="120.75">
+      <c r="A33" s="4">
+        <v>201024633174</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="120.75">
+      <c r="A34" s="4">
+        <v>201211450440</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="120.75">
+      <c r="A35" s="4">
+        <v>201277792819</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="120.75">
+      <c r="A36" s="4">
+        <v>201142750000</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="120.75">
+      <c r="A37" s="4">
+        <v>201015023234</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="120.75">
+      <c r="A38" s="4">
+        <v>201277334189</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="120.75">
+      <c r="A39" s="4">
+        <v>201225108842</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="120.75">
+      <c r="A40" s="4">
+        <v>201224696393</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="3">
   <si>
     <t>Contact</t>
   </si>
@@ -22,21 +22,8 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Thank you for your interest in our school. 
-We appreciate the time and effort you put into the application process but we need you to do an *English* re-exam, for another chance and another opportunity. 
-Stay tuned for further details regarding the re-exam dates.
-Global British School (GBS)</t>
-  </si>
-  <si>
-    <t>Thank you for your interest in our school. 
-We appreciate the time and effort you put into the application process but we need you to do a *Maths* re-exam, for another chance and another opportunity. 
-Stay tuned for further details regarding the re-exam dates.
-Global British School (GBS)</t>
-  </si>
-  <si>
-    <t>Thank you for your interest in our school. 
-We appreciate the time and effort you put into the application process but we need you to do a *Maths &amp; English* re-exam, for another chance and another opportunity. 
-Stay tuned for further details regarding the re-exam dates.
+    <t>🎉 Congratulations! 🎉 You've been accepted to join our school community! 📚 We can't wait to welcome you and embark on this exciting journey together. 🤩 
+Get ready for an amazing academic experience filled with growth, learning, and fun!
 Global British School (GBS)</t>
   </si>
 </sst>
@@ -55,7 +42,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFffffff"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -65,14 +58,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,11 +68,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFff00ff"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -119,7 +121,22 @@
         <color rgb="FFff0000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FF00ff00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00ff00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00ff00"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFffff00"/>
       </bottom>
       <diagonal/>
     </border>
@@ -139,41 +156,112 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FF00ff00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00ff00"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00ff00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00ff00"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFffff00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFffff00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00ffff"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00ffff"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFffff00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00ffff"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00ffff"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00ffff"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00ff00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00ffff"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
@@ -480,17 +568,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="92.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="92.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -506,7 +594,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="120.75">
       <c r="A2" s="4">
-        <v>201110000118</v>
+        <v>201220108367</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -516,8 +604,8 @@
       <c r="E2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="120.75">
-      <c r="A3" s="4">
-        <v>201117733401</v>
+      <c r="A3" s="7">
+        <v>201028289109</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
@@ -527,8 +615,8 @@
       <c r="E3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="120.75">
-      <c r="A4" s="4">
-        <v>201024633174</v>
+      <c r="A4" s="8">
+        <v>201095506750</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
@@ -538,8 +626,8 @@
       <c r="E4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="120.75">
-      <c r="A5" s="4">
-        <v>201285777823</v>
+      <c r="A5" s="7">
+        <v>201204440333</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
@@ -548,9 +636,9 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="120.75">
-      <c r="A6" s="4">
-        <v>201145111904</v>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="65.25">
+      <c r="A6" s="8">
+        <v>201030717317</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
@@ -559,9 +647,9 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="120.75">
-      <c r="A7" s="4">
-        <v>201224665800</v>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="65.25">
+      <c r="A7" s="7">
+        <v>201000534281</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
@@ -570,9 +658,9 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="120.75">
-      <c r="A8" s="4">
-        <v>201002468494</v>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="65.25">
+      <c r="A8" s="8">
+        <v>201005212210</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
@@ -581,9 +669,9 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="120.75">
-      <c r="A9" s="4">
-        <v>201005002021</v>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="65.25">
+      <c r="A9" s="7">
+        <v>201016083669</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
@@ -593,8 +681,8 @@
       <c r="E9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="120.75">
-      <c r="A10" s="4">
-        <v>201118000945</v>
+      <c r="A10" s="8">
+        <v>201114142142</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
@@ -604,8 +692,8 @@
       <c r="E10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="120.75">
-      <c r="A11" s="4">
-        <v>201005851044</v>
+      <c r="A11" s="7">
+        <v>201147901146</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
@@ -615,8 +703,8 @@
       <c r="E11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="120.75">
-      <c r="A12" s="4">
-        <v>201100588774</v>
+      <c r="A12" s="8">
+        <v>201099833024</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
@@ -626,8 +714,8 @@
       <c r="E12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="120.75">
-      <c r="A13" s="4">
-        <v>201098999963</v>
+      <c r="A13" s="7">
+        <v>201064416055</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
@@ -637,8 +725,8 @@
       <c r="E13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="120.75">
-      <c r="A14" s="4">
-        <v>201001431290</v>
+      <c r="A14" s="8">
+        <v>201120539346</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
@@ -648,8 +736,8 @@
       <c r="E14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="120.75">
-      <c r="A15" s="4">
-        <v>201146596950</v>
+      <c r="A15" s="7">
+        <v>201006405387</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
@@ -659,8 +747,8 @@
       <c r="E15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="120.75">
-      <c r="A16" s="4">
-        <v>201098999963</v>
+      <c r="A16" s="8">
+        <v>201026283988</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
@@ -670,107 +758,107 @@
       <c r="E16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="120.75">
-      <c r="A17" s="4">
-        <v>201128478504</v>
+      <c r="A17" s="7">
+        <v>201115481625</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="120.75">
-      <c r="A18" s="4">
-        <v>201015110598</v>
+      <c r="A18" s="8">
+        <v>201005444333</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="120.75">
-      <c r="A19" s="4">
-        <v>201224950960</v>
+      <c r="A19" s="7">
+        <v>201012939649</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="120.75">
-      <c r="A20" s="4">
-        <v>201008780053</v>
+      <c r="A20" s="8">
+        <v>201120077784</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="120.75">
-      <c r="A21" s="4">
-        <v>201117979799</v>
+      <c r="A21" s="7">
+        <v>201116233056</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="120.75">
-      <c r="A22" s="4">
-        <v>201159196103</v>
+      <c r="A22" s="8">
+        <v>201016763789</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="120.75">
-      <c r="A23" s="4">
-        <v>201149422131</v>
+      <c r="A23" s="7">
+        <v>201099894782</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="120.75">
-      <c r="A24" s="4">
-        <v>201025206585</v>
+      <c r="A24" s="8">
+        <v>201001923055</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="120.75">
-      <c r="A25" s="4">
-        <v>201005007354</v>
+      <c r="A25" s="7">
+        <v>201150909474</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="120.75">
-      <c r="A26" s="4">
-        <v>201093393984</v>
+      <c r="A26" s="8">
+        <v>201009990270</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
@@ -779,159 +867,2630 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="120.75">
-      <c r="A27" s="4">
-        <v>201023589496</v>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="65.25">
+      <c r="A27" s="7">
+        <v>201154146661</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="120.75">
-      <c r="A28" s="4">
-        <v>201009900091</v>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="65.25">
+      <c r="A28" s="8">
+        <v>201010558172</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="120.75">
-      <c r="A29" s="4">
-        <v>201001617083</v>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="65.25">
+      <c r="A29" s="7">
+        <v>201021101284</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="120.75">
-      <c r="A30" s="4">
-        <v>201005263940</v>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="65.25">
+      <c r="A30" s="8">
+        <v>201221190749</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="120.75">
-      <c r="A31" s="4">
-        <v>201010971115</v>
+      <c r="A31" s="7">
+        <v>201093266772</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="120.75">
-      <c r="A32" s="4">
-        <v>201144142995</v>
+      <c r="A32" s="8">
+        <v>201022061604</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="120.75">
-      <c r="A33" s="4">
-        <v>201024633174</v>
+      <c r="A33" s="7">
+        <v>201098047196</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="120.75">
-      <c r="A34" s="4">
-        <v>201211450440</v>
+      <c r="A34" s="8">
+        <v>201155226015</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="120.75">
-      <c r="A35" s="4">
-        <v>201277792819</v>
+      <c r="A35" s="7">
+        <v>201140709942</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="120.75">
-      <c r="A36" s="4">
-        <v>201142750000</v>
+      <c r="A36" s="7">
+        <v>201114318387</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="120.75">
-      <c r="A37" s="4">
-        <v>201015023234</v>
+      <c r="A37" s="8">
+        <v>201027873125</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="120.75">
-      <c r="A38" s="4">
-        <v>201277334189</v>
+      <c r="A38" s="7">
+        <v>201014453944</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="120.75">
-      <c r="A39" s="4">
-        <v>201225108842</v>
+      <c r="A39" s="8">
+        <v>201069958109</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="120.75">
-      <c r="A40" s="4">
-        <v>201224696393</v>
+      <c r="A40" s="8">
+        <v>201008841236</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="120.75">
+      <c r="A41" s="7">
+        <v>201068422533</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="120.75">
+      <c r="A42" s="8">
+        <v>201142749873</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="120.75">
+      <c r="A43" s="7">
+        <v>201021096284</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="120.75">
+      <c r="A44" s="8">
+        <v>201273351107</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="120.75">
+      <c r="A45" s="7">
+        <v>201001144707</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="120.75">
+      <c r="A46" s="8">
+        <v>201123297105</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="120.75">
+      <c r="A47" s="7">
+        <v>201099008508</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="120.75">
+      <c r="A48" s="8">
+        <v>201098564447</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="120.75">
+      <c r="A49" s="7">
+        <v>201279670177</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="120.75">
+      <c r="A50" s="8">
+        <v>201555001496</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="120.75">
+      <c r="A51" s="7">
+        <v>201098038980</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="120.75">
+      <c r="A52" s="8">
+        <v>201014683237</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="120.75">
+      <c r="A53" s="7">
+        <v>201010563856</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="120.75">
+      <c r="A54" s="8">
+        <v>201097924478</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="120.75">
+      <c r="A55" s="7">
+        <v>201008979598</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="120.75">
+      <c r="A56" s="8">
+        <v>201021318311</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="120.75">
+      <c r="A57" s="7">
+        <v>201016920088</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="120.75">
+      <c r="A58" s="8">
+        <v>201094883299</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="120.75">
+      <c r="A59" s="7">
+        <v>201060860371</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="120.75">
+      <c r="A60" s="8">
+        <v>201061614855</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="120.75">
+      <c r="A61" s="7">
+        <v>201119995945</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="120.75">
+      <c r="A62" s="8">
+        <v>201001589633</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="120.75">
+      <c r="A63" s="7">
+        <v>201553951091</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="120.75">
+      <c r="A64" s="8">
+        <v>201026064800</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="120.75">
+      <c r="A65" s="7">
+        <v>201063470259</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="120.75">
+      <c r="A66" s="8">
+        <v>201284923339</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="120.75">
+      <c r="A67" s="7">
+        <v>201206729093</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="120.75">
+      <c r="A68" s="8">
+        <v>201200730003</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="120.75">
+      <c r="A69" s="7">
+        <v>201090575762</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="120.75">
+      <c r="A70" s="8">
+        <v>201147492854</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="120.75">
+      <c r="A71" s="7">
+        <v>201110051011</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="120.75">
+      <c r="A72" s="8">
+        <v>201061619697</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="120.75">
+      <c r="A73" s="7">
+        <v>201018813364</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="120.75">
+      <c r="A74" s="8">
+        <v>201121466665</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="120.75">
+      <c r="A75" s="7">
+        <v>201099844333</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="120.75">
+      <c r="A76" s="8">
+        <v>201128464601</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="120.75">
+      <c r="A77" s="7">
+        <v>201099216338</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="120.75">
+      <c r="A78" s="8">
+        <v>201012031016</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="120.75">
+      <c r="A79" s="7">
+        <v>201070118863</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="120.75">
+      <c r="A80" s="8">
+        <v>201553019199</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="120.75">
+      <c r="A81" s="7">
+        <v>201061614655</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="120.75">
+      <c r="A82" s="8">
+        <v>201004240915</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="120.75">
+      <c r="A83" s="7">
+        <v>201001282940</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="120.75">
+      <c r="A84" s="8">
+        <v>201010306584</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="120.75">
+      <c r="A85" s="7">
+        <v>201025743316</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="120.75">
+      <c r="A86" s="8">
+        <v>201016110002</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="120.75">
+      <c r="A87" s="7">
+        <v>201001008855</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="120.75">
+      <c r="A88" s="8">
+        <v>201011316315</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="120.75">
+      <c r="A89" s="7">
+        <v>201021220648</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="120.75">
+      <c r="A90" s="8">
+        <v>201002934831</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="120.75">
+      <c r="A91" s="7">
+        <v>201018532582</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="120.75">
+      <c r="A92" s="8">
+        <v>201114321148</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="120.75">
+      <c r="A93" s="7">
+        <v>201156080044</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="120.75">
+      <c r="A94" s="8">
+        <v>201050208524</v>
+      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="120.75">
+      <c r="A95" s="7">
+        <v>201278589738</v>
+      </c>
+      <c r="B95" s="5"/>
+      <c r="C95" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="120.75">
+      <c r="A96" s="8">
+        <v>201003802809</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="120.75">
+      <c r="A97" s="7">
+        <v>201114417625</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="120.75">
+      <c r="A98" s="8">
+        <v>201119681911</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="120.75">
+      <c r="A99" s="7">
+        <v>201070118862</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="120.75">
+      <c r="A100" s="8">
+        <v>201154731888</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="120.75">
+      <c r="A101" s="7">
+        <v>201096323171</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="120.75">
+      <c r="A102" s="8">
+        <v>201028579069</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="120.75">
+      <c r="A103" s="7">
+        <v>201066552746</v>
+      </c>
+      <c r="B103" s="5"/>
+      <c r="C103" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="120.75">
+      <c r="A104" s="8">
+        <v>201223180675</v>
+      </c>
+      <c r="B104" s="5"/>
+      <c r="C104" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="120.75">
+      <c r="A105" s="7">
+        <v>201062881377</v>
+      </c>
+      <c r="B105" s="5"/>
+      <c r="C105" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="120.75">
+      <c r="A106" s="8">
+        <v>201005595144</v>
+      </c>
+      <c r="B106" s="5"/>
+      <c r="C106" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="120.75">
+      <c r="A107" s="7">
+        <v>201000792431</v>
+      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="120.75">
+      <c r="A108" s="8">
+        <v>201123495820</v>
+      </c>
+      <c r="B108" s="5"/>
+      <c r="C108" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="120.75">
+      <c r="A109" s="7">
+        <v>201097065179</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="120.75">
+      <c r="A110" s="8">
+        <v>201021519134</v>
+      </c>
+      <c r="B110" s="5"/>
+      <c r="C110" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="120.75">
+      <c r="A111" s="7">
+        <v>201000103185</v>
+      </c>
+      <c r="B111" s="5"/>
+      <c r="C111" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="120.75">
+      <c r="A112" s="8">
+        <v>201018339163</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="120.75">
+      <c r="A113" s="7">
+        <v>201092595943</v>
+      </c>
+      <c r="B113" s="5"/>
+      <c r="C113" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="120.75">
+      <c r="A114" s="8">
+        <v>201097975603</v>
+      </c>
+      <c r="B114" s="5"/>
+      <c r="C114" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="120.75">
+      <c r="A115" s="7">
+        <v>201062495899</v>
+      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="120.75">
+      <c r="A116" s="8">
+        <v>201024447891</v>
+      </c>
+      <c r="B116" s="5"/>
+      <c r="C116" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="120.75">
+      <c r="A117" s="7">
+        <v>201002044901</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="120.75">
+      <c r="A118" s="8">
+        <v>201273663723</v>
+      </c>
+      <c r="B118" s="5"/>
+      <c r="C118" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="120.75">
+      <c r="A119" s="7">
+        <v>201557371949</v>
+      </c>
+      <c r="B119" s="5"/>
+      <c r="C119" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="120.75">
+      <c r="A120" s="8">
+        <v>201005508696</v>
+      </c>
+      <c r="B120" s="5"/>
+      <c r="C120" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="120.75">
+      <c r="A121" s="7">
+        <v>201116899310</v>
+      </c>
+      <c r="B121" s="5"/>
+      <c r="C121" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="120.75">
+      <c r="A122" s="8">
+        <v>201001159210</v>
+      </c>
+      <c r="B122" s="5"/>
+      <c r="C122" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="120.75">
+      <c r="A123" s="7">
+        <v>201552874667</v>
+      </c>
+      <c r="B123" s="5"/>
+      <c r="C123" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="120.75">
+      <c r="A124" s="8">
+        <v>201117551886</v>
+      </c>
+      <c r="B124" s="5"/>
+      <c r="C124" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="120.75">
+      <c r="A125" s="7">
+        <v>201022752415</v>
+      </c>
+      <c r="B125" s="5"/>
+      <c r="C125" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="120.75">
+      <c r="A126" s="8">
+        <v>201097666600</v>
+      </c>
+      <c r="B126" s="5"/>
+      <c r="C126" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="120.75">
+      <c r="A127" s="7">
+        <v>201113763260</v>
+      </c>
+      <c r="B127" s="5"/>
+      <c r="C127" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="120.75">
+      <c r="A128" s="8">
+        <v>201068796981</v>
+      </c>
+      <c r="B128" s="5"/>
+      <c r="C128" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="120.75">
+      <c r="A129" s="8">
+        <v>201001056217</v>
+      </c>
+      <c r="B129" s="5"/>
+      <c r="C129" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="120.75">
+      <c r="A130" s="7">
+        <v>201030815851</v>
+      </c>
+      <c r="B130" s="5"/>
+      <c r="C130" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="120.75">
+      <c r="A131" s="8">
+        <v>201142982007</v>
+      </c>
+      <c r="B131" s="5"/>
+      <c r="C131" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="120.75">
+      <c r="A132" s="7">
+        <v>201100028444</v>
+      </c>
+      <c r="B132" s="5"/>
+      <c r="C132" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="120.75">
+      <c r="A133" s="8">
+        <v>201147009009</v>
+      </c>
+      <c r="B133" s="5"/>
+      <c r="C133" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="120.75">
+      <c r="A134" s="7">
+        <v>201001338284</v>
+      </c>
+      <c r="B134" s="5"/>
+      <c r="C134" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="120.75">
+      <c r="A135" s="8">
+        <v>201021519243</v>
+      </c>
+      <c r="B135" s="5"/>
+      <c r="C135" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="120.75">
+      <c r="A136" s="7">
+        <v>201212284330</v>
+      </c>
+      <c r="B136" s="5"/>
+      <c r="C136" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="120.75">
+      <c r="A137" s="8">
+        <v>201111788966</v>
+      </c>
+      <c r="B137" s="5"/>
+      <c r="C137" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="120.75">
+      <c r="A138" s="7">
+        <v>201156628947</v>
+      </c>
+      <c r="B138" s="5"/>
+      <c r="C138" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="120.75">
+      <c r="A139" s="8">
+        <v>201030937719</v>
+      </c>
+      <c r="B139" s="5"/>
+      <c r="C139" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="120.75">
+      <c r="A140" s="7">
+        <v>201098866145</v>
+      </c>
+      <c r="B140" s="5"/>
+      <c r="C140" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="120.75">
+      <c r="A141" s="8">
+        <v>201066356485</v>
+      </c>
+      <c r="B141" s="5"/>
+      <c r="C141" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="120.75">
+      <c r="A142" s="7">
+        <v>201124644111</v>
+      </c>
+      <c r="B142" s="5"/>
+      <c r="C142" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="120.75">
+      <c r="A143" s="8">
+        <v>201006753387</v>
+      </c>
+      <c r="B143" s="5"/>
+      <c r="C143" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="120.75">
+      <c r="A144" s="7">
+        <v>201006797169</v>
+      </c>
+      <c r="B144" s="5"/>
+      <c r="C144" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="120.75">
+      <c r="A145" s="8">
+        <v>201005222103</v>
+      </c>
+      <c r="B145" s="5"/>
+      <c r="C145" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="120.75">
+      <c r="A146" s="7">
+        <v>201128303512</v>
+      </c>
+      <c r="B146" s="5"/>
+      <c r="C146" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="120.75">
+      <c r="A147" s="8">
+        <v>201065551855</v>
+      </c>
+      <c r="B147" s="5"/>
+      <c r="C147" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="120.75">
+      <c r="A148" s="7">
+        <v>201066499825</v>
+      </c>
+      <c r="B148" s="5"/>
+      <c r="C148" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="120.75">
+      <c r="A149" s="8">
+        <v>201090895002</v>
+      </c>
+      <c r="B149" s="5"/>
+      <c r="C149" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="120.75">
+      <c r="A150" s="7">
+        <v>201007796705</v>
+      </c>
+      <c r="B150" s="5"/>
+      <c r="C150" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="120.75">
+      <c r="A151" s="8">
+        <v>201001692805</v>
+      </c>
+      <c r="B151" s="5"/>
+      <c r="C151" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="120.75">
+      <c r="A152" s="7">
+        <v>201062428092</v>
+      </c>
+      <c r="B152" s="5"/>
+      <c r="C152" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="120.75">
+      <c r="A153" s="8">
+        <v>201025009998</v>
+      </c>
+      <c r="B153" s="5"/>
+      <c r="C153" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="120.75">
+      <c r="A154" s="7">
+        <v>201096271420</v>
+      </c>
+      <c r="B154" s="5"/>
+      <c r="C154" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="120.75">
+      <c r="A155" s="8">
+        <v>201090894216</v>
+      </c>
+      <c r="B155" s="5"/>
+      <c r="C155" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="120.75">
+      <c r="A156" s="7">
+        <v>201156614514</v>
+      </c>
+      <c r="B156" s="5"/>
+      <c r="C156" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="120.75">
+      <c r="A157" s="8">
+        <v>201200221850</v>
+      </c>
+      <c r="B157" s="5"/>
+      <c r="C157" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="120.75">
+      <c r="A158" s="7">
+        <v>201225081173</v>
+      </c>
+      <c r="B158" s="5"/>
+      <c r="C158" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="120.75">
+      <c r="A159" s="8">
+        <v>201025993114</v>
+      </c>
+      <c r="B159" s="5"/>
+      <c r="C159" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="120.75">
+      <c r="A160" s="7">
+        <v>201150807777</v>
+      </c>
+      <c r="B160" s="5"/>
+      <c r="C160" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="120.75">
+      <c r="A161" s="8">
+        <v>201050151045</v>
+      </c>
+      <c r="B161" s="5"/>
+      <c r="C161" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="120.75">
+      <c r="A162" s="7">
+        <v>201277603821</v>
+      </c>
+      <c r="B162" s="5"/>
+      <c r="C162" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="120.75">
+      <c r="A163" s="8">
+        <v>201005834874</v>
+      </c>
+      <c r="B163" s="5"/>
+      <c r="C163" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="120.75">
+      <c r="A164" s="7">
+        <v>201063845040</v>
+      </c>
+      <c r="B164" s="5"/>
+      <c r="C164" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="120.75">
+      <c r="A165" s="8">
+        <v>201020568725</v>
+      </c>
+      <c r="B165" s="5"/>
+      <c r="C165" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="120.75">
+      <c r="A166" s="7">
+        <v>201111357503</v>
+      </c>
+      <c r="B166" s="5"/>
+      <c r="C166" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="120.75">
+      <c r="A167" s="8">
+        <v>201005638350</v>
+      </c>
+      <c r="B167" s="5"/>
+      <c r="C167" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="120.75">
+      <c r="A168" s="7">
+        <v>201508333155</v>
+      </c>
+      <c r="B168" s="5"/>
+      <c r="C168" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="120.75">
+      <c r="A169" s="8">
+        <v>201273888230</v>
+      </c>
+      <c r="B169" s="5"/>
+      <c r="C169" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="120.75">
+      <c r="A170" s="7">
+        <v>201113491723</v>
+      </c>
+      <c r="B170" s="5"/>
+      <c r="C170" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="120.75">
+      <c r="A171" s="8">
+        <v>201020640341</v>
+      </c>
+      <c r="B171" s="5"/>
+      <c r="C171" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="120.75">
+      <c r="A172" s="7">
+        <v>201121132377</v>
+      </c>
+      <c r="B172" s="5"/>
+      <c r="C172" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="120.75">
+      <c r="A173" s="8">
+        <v>201002201772</v>
+      </c>
+      <c r="B173" s="5"/>
+      <c r="C173" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="120.75">
+      <c r="A174" s="7">
+        <v>201115485999</v>
+      </c>
+      <c r="B174" s="5"/>
+      <c r="C174" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="120.75">
+      <c r="A175" s="8">
+        <v>201091364146</v>
+      </c>
+      <c r="B175" s="5"/>
+      <c r="C175" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="120.75">
+      <c r="A176" s="7">
+        <v>201227444804</v>
+      </c>
+      <c r="B176" s="5"/>
+      <c r="C176" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="120.75">
+      <c r="A177" s="8">
+        <v>201223509441</v>
+      </c>
+      <c r="B177" s="5"/>
+      <c r="C177" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="120.75">
+      <c r="A178" s="7">
+        <v>201004387047</v>
+      </c>
+      <c r="B178" s="5"/>
+      <c r="C178" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="120.75">
+      <c r="A179" s="8">
+        <v>201098859005</v>
+      </c>
+      <c r="B179" s="5"/>
+      <c r="C179" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="120.75">
+      <c r="A180" s="7">
+        <v>201111104501</v>
+      </c>
+      <c r="B180" s="5"/>
+      <c r="C180" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="120.75">
+      <c r="A181" s="8">
+        <v>201273914933</v>
+      </c>
+      <c r="B181" s="5"/>
+      <c r="C181" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="120.75">
+      <c r="A182" s="7">
+        <v>201064115257</v>
+      </c>
+      <c r="B182" s="5"/>
+      <c r="C182" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="120.75">
+      <c r="A183" s="8">
+        <v>201009905090</v>
+      </c>
+      <c r="B183" s="5"/>
+      <c r="C183" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="120.75">
+      <c r="A184" s="7">
+        <v>201273600146</v>
+      </c>
+      <c r="B184" s="5"/>
+      <c r="C184" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="120.75">
+      <c r="A185" s="8">
+        <v>201112229344</v>
+      </c>
+      <c r="B185" s="5"/>
+      <c r="C185" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="120.75">
+      <c r="A186" s="7">
+        <v>201004403701</v>
+      </c>
+      <c r="B186" s="5"/>
+      <c r="C186" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="120.75">
+      <c r="A187" s="8">
+        <v>201097065448</v>
+      </c>
+      <c r="B187" s="5"/>
+      <c r="C187" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="120.75">
+      <c r="A188" s="7">
+        <v>201275444499</v>
+      </c>
+      <c r="B188" s="5"/>
+      <c r="C188" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="120.75">
+      <c r="A189" s="8">
+        <v>201064383893</v>
+      </c>
+      <c r="B189" s="5"/>
+      <c r="C189" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="120.75">
+      <c r="A190" s="7">
+        <v>201016971812</v>
+      </c>
+      <c r="B190" s="5"/>
+      <c r="C190" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="120.75">
+      <c r="A191" s="8">
+        <v>201002412331</v>
+      </c>
+      <c r="B191" s="5"/>
+      <c r="C191" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="120.75">
+      <c r="A192" s="7">
+        <v>201030912969</v>
+      </c>
+      <c r="B192" s="5"/>
+      <c r="C192" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="120.75">
+      <c r="A193" s="8">
+        <v>201277334189</v>
+      </c>
+      <c r="B193" s="5"/>
+      <c r="C193" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="120.75">
+      <c r="A194" s="7">
+        <v>201229411110</v>
+      </c>
+      <c r="B194" s="5"/>
+      <c r="C194" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="120.75">
+      <c r="A195" s="8">
+        <v>201100820818</v>
+      </c>
+      <c r="B195" s="5"/>
+      <c r="C195" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="120.75">
+      <c r="A196" s="7">
+        <v>201027573838</v>
+      </c>
+      <c r="B196" s="5"/>
+      <c r="C196" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="120.75">
+      <c r="A197" s="8">
+        <v>201061619917</v>
+      </c>
+      <c r="B197" s="5"/>
+      <c r="C197" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="120.75">
+      <c r="A198" s="7">
+        <v>201007056808</v>
+      </c>
+      <c r="B198" s="5"/>
+      <c r="C198" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="120.75">
+      <c r="A199" s="8">
+        <v>201010181989</v>
+      </c>
+      <c r="B199" s="5"/>
+      <c r="C199" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="120.75">
+      <c r="A200" s="7">
+        <v>201019299110</v>
+      </c>
+      <c r="B200" s="5"/>
+      <c r="C200" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="120.75">
+      <c r="A201" s="8">
+        <v>201128303512</v>
+      </c>
+      <c r="B201" s="5"/>
+      <c r="C201" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="120.75">
+      <c r="A202" s="7">
+        <v>201550819845</v>
+      </c>
+      <c r="B202" s="5"/>
+      <c r="C202" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="120.75">
+      <c r="A203" s="8">
+        <v>201147712371</v>
+      </c>
+      <c r="B203" s="5"/>
+      <c r="C203" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="120.75">
+      <c r="A204" s="7">
+        <v>201099698019</v>
+      </c>
+      <c r="B204" s="5"/>
+      <c r="C204" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="120.75">
+      <c r="A205" s="8">
+        <v>201126000445</v>
+      </c>
+      <c r="B205" s="5"/>
+      <c r="C205" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="120.75">
+      <c r="A206" s="7">
+        <v>201554602224</v>
+      </c>
+      <c r="B206" s="5"/>
+      <c r="C206" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="120.75">
+      <c r="A207" s="8">
+        <v>201155884840</v>
+      </c>
+      <c r="B207" s="5"/>
+      <c r="C207" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="120.75">
+      <c r="A208" s="7">
+        <v>201017427426</v>
+      </c>
+      <c r="B208" s="5"/>
+      <c r="C208" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="120.75">
+      <c r="A209" s="8">
+        <v>201558106205</v>
+      </c>
+      <c r="B209" s="5"/>
+      <c r="C209" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="120.75">
+      <c r="A210" s="7">
+        <v>201154068705</v>
+      </c>
+      <c r="B210" s="5"/>
+      <c r="C210" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="120.75">
+      <c r="A211" s="8">
+        <v>201006841109</v>
+      </c>
+      <c r="B211" s="5"/>
+      <c r="C211" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="120.75">
+      <c r="A212" s="7">
+        <v>201063992212</v>
+      </c>
+      <c r="B212" s="5"/>
+      <c r="C212" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="120.75">
+      <c r="A213" s="8">
+        <v>201033962142</v>
+      </c>
+      <c r="B213" s="5"/>
+      <c r="C213" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="120.75">
+      <c r="A214" s="7">
+        <v>201091875207</v>
+      </c>
+      <c r="B214" s="5"/>
+      <c r="C214" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="120.75">
+      <c r="A215" s="8">
+        <v>201033939646</v>
+      </c>
+      <c r="B215" s="5"/>
+      <c r="C215" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="120.75">
+      <c r="A216" s="7">
+        <v>201117808846</v>
+      </c>
+      <c r="B216" s="5"/>
+      <c r="C216" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="120.75">
+      <c r="A217" s="8">
+        <v>201064225784</v>
+      </c>
+      <c r="B217" s="5"/>
+      <c r="C217" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="120.75">
+      <c r="A218" s="7">
+        <v>201021509484</v>
+      </c>
+      <c r="B218" s="5"/>
+      <c r="C218" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="120.75">
+      <c r="A219" s="8">
+        <v>201019058672</v>
+      </c>
+      <c r="B219" s="5"/>
+      <c r="C219" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="120.75">
+      <c r="A220" s="7">
+        <v>201068155036</v>
+      </c>
+      <c r="B220" s="5"/>
+      <c r="C220" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="120.75">
+      <c r="A221" s="8">
+        <v>201009031502</v>
+      </c>
+      <c r="B221" s="5"/>
+      <c r="C221" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="120.75">
+      <c r="A222" s="7">
+        <v>201007264724</v>
+      </c>
+      <c r="B222" s="5"/>
+      <c r="C222" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="120.75">
+      <c r="A223" s="8">
+        <v>201011034983</v>
+      </c>
+      <c r="B223" s="5"/>
+      <c r="C223" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="120.75">
+      <c r="A224" s="7">
+        <v>201021166859</v>
+      </c>
+      <c r="B224" s="5"/>
+      <c r="C224" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="120.75">
+      <c r="A225" s="8">
+        <v>201557520772</v>
+      </c>
+      <c r="B225" s="5"/>
+      <c r="C225" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="120.75">
+      <c r="A226" s="7">
+        <v>201098068830</v>
+      </c>
+      <c r="B226" s="5"/>
+      <c r="C226" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="120.75">
+      <c r="A227" s="8">
+        <v>201092527743</v>
+      </c>
+      <c r="B227" s="5"/>
+      <c r="C227" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="120.75">
+      <c r="A228" s="7">
+        <v>201032547336</v>
+      </c>
+      <c r="B228" s="5"/>
+      <c r="C228" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="120.75">
+      <c r="A229" s="8">
+        <v>201223708825</v>
+      </c>
+      <c r="B229" s="5"/>
+      <c r="C229" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="120.75">
+      <c r="A230" s="7">
+        <v>201123228787</v>
+      </c>
+      <c r="B230" s="5"/>
+      <c r="C230" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="120.75">
+      <c r="A231" s="8">
+        <v>201554024196</v>
+      </c>
+      <c r="B231" s="5"/>
+      <c r="C231" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="120.75">
+      <c r="A232" s="7">
+        <v>201015060575</v>
+      </c>
+      <c r="B232" s="5"/>
+      <c r="C232" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="120.75">
+      <c r="A233" s="8">
+        <v>201033979682</v>
+      </c>
+      <c r="B233" s="5"/>
+      <c r="C233" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="120.75">
+      <c r="A234" s="7">
+        <v>201097668552</v>
+      </c>
+      <c r="B234" s="5"/>
+      <c r="C234" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="120.75">
+      <c r="A235" s="8">
+        <v>201097080105</v>
+      </c>
+      <c r="B235" s="5"/>
+      <c r="C235" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="120.75">
+      <c r="A236" s="7">
+        <v>201092165394</v>
+      </c>
+      <c r="B236" s="5"/>
+      <c r="C236" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="120.75">
+      <c r="A237" s="8">
+        <v>10019270000</v>
+      </c>
+      <c r="B237" s="5"/>
+      <c r="C237" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="120.75">
+      <c r="A238" s="7">
+        <v>201006251175</v>
+      </c>
+      <c r="B238" s="5"/>
+      <c r="C238" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="120.75">
+      <c r="A239" s="8">
+        <v>201093003026</v>
+      </c>
+      <c r="B239" s="5"/>
+      <c r="C239" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="120.75">
+      <c r="A240" s="7">
+        <v>201025423071</v>
+      </c>
+      <c r="B240" s="5"/>
+      <c r="C240" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="120.75">
+      <c r="A241" s="8">
+        <v>201008191031</v>
+      </c>
+      <c r="B241" s="5"/>
+      <c r="C241" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="120.75">
+      <c r="A242" s="7">
+        <v>201110697474</v>
+      </c>
+      <c r="B242" s="5"/>
+      <c r="C242" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="120.75">
+      <c r="A243" s="8">
+        <v>201024447891</v>
+      </c>
+      <c r="B243" s="5"/>
+      <c r="C243" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="120.75">
+      <c r="A244" s="7">
+        <v>201032446141</v>
+      </c>
+      <c r="B244" s="5"/>
+      <c r="C244" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="120.75">
+      <c r="A245" s="8">
+        <v>201205987000</v>
+      </c>
+      <c r="B245" s="5"/>
+      <c r="C245" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="120.75">
+      <c r="A246" s="7">
+        <v>201005767059</v>
+      </c>
+      <c r="B246" s="5"/>
+      <c r="C246" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="120.75">
+      <c r="A247" s="8">
+        <v>201555961499</v>
+      </c>
+      <c r="B247" s="5"/>
+      <c r="C247" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" s="5"/>
+      <c r="E247" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="120.75">
+      <c r="A248" s="7">
+        <v>201003944195</v>
+      </c>
+      <c r="B248" s="5"/>
+      <c r="C248" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="120.75">
+      <c r="A249" s="8">
+        <v>201001677034</v>
+      </c>
+      <c r="B249" s="5"/>
+      <c r="C249" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="120.75">
+      <c r="A250" s="7">
+        <v>201062794929</v>
+      </c>
+      <c r="B250" s="5"/>
+      <c r="C250" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="120.75">
+      <c r="A251" s="8">
+        <v>201003567005</v>
+      </c>
+      <c r="B251" s="5"/>
+      <c r="C251" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="120.75">
+      <c r="A252" s="7">
+        <v>201003647473</v>
+      </c>
+      <c r="B252" s="5"/>
+      <c r="C252" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="120.75">
+      <c r="A253" s="8">
+        <v>201032072191</v>
+      </c>
+      <c r="B253" s="5"/>
+      <c r="C253" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" s="5"/>
+      <c r="E253" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="120.75">
+      <c r="A254" s="7">
+        <v>201004912744</v>
+      </c>
+      <c r="B254" s="5"/>
+      <c r="C254" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254" s="5"/>
+      <c r="E254" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="120.75">
+      <c r="A255" s="8">
+        <v>201115165008</v>
+      </c>
+      <c r="B255" s="5"/>
+      <c r="C255" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="120.75">
+      <c r="A256" s="7">
+        <v>201092307944</v>
+      </c>
+      <c r="B256" s="5"/>
+      <c r="C256" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="120.75">
+      <c r="A257" s="8">
+        <v>201114861070</v>
+      </c>
+      <c r="B257" s="5"/>
+      <c r="C257" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="120.75">
+      <c r="A258" s="7">
+        <v>201013514087</v>
+      </c>
+      <c r="B258" s="5"/>
+      <c r="C258" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="120.75">
+      <c r="A259" s="8">
+        <v>201004912744</v>
+      </c>
+      <c r="B259" s="5"/>
+      <c r="C259" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="120.75">
+      <c r="A260" s="7">
+        <v>201127440646</v>
+      </c>
+      <c r="B260" s="5"/>
+      <c r="C260" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="120.75">
+      <c r="A261" s="8">
+        <v>201028474144</v>
+      </c>
+      <c r="B261" s="5"/>
+      <c r="C261" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="120.75">
+      <c r="A262" s="7">
+        <v>201022596357</v>
+      </c>
+      <c r="B262" s="5"/>
+      <c r="C262" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="120.75">
+      <c r="A263" s="8">
+        <v>201203533268</v>
+      </c>
+      <c r="B263" s="5"/>
+      <c r="C263" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="120.75">
+      <c r="A264" s="7">
+        <v>201289909812</v>
+      </c>
+      <c r="B264" s="5"/>
+      <c r="C264" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="13.550000000000002">
+      <c r="A265" s="10"/>
+      <c r="B265" s="11"/>
+      <c r="C265" s="12"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
